--- a/data/trans_bre/P40_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Provincia-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-8.974072881564554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-8.037458825273081</v>
+        <v>-8.037458825273092</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.05035588347724911</v>
@@ -649,7 +649,7 @@
         <v>-0.1194912061118591</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.107000153426476</v>
+        <v>-0.1070001534264761</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.88368940392264</v>
+        <v>-11.40433204377908</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-24.64737001819088</v>
+        <v>-24.89191848233506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-16.45228337205945</v>
+        <v>-15.98526647343626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.24868604231543</v>
+        <v>-14.98549083863096</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1258614360071831</v>
+        <v>-0.1317814281366016</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3070606921387022</v>
+        <v>-0.3141014243979602</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.211802872145989</v>
+        <v>-0.2087547093033083</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1830361018518458</v>
+        <v>-0.1909902612638662</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.126470360616447</v>
+        <v>2.871134131670355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.621654840127224</v>
+        <v>-9.263744277388211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.9893807306914131</v>
+        <v>-1.451644550588842</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.652340779479917</v>
+        <v>-2.603694182592481</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.03912781276268283</v>
+        <v>0.03558903070154001</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1287178925872781</v>
+        <v>-0.1279431313087655</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.01485038345731707</v>
+        <v>-0.02334926412636034</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.02376742374404282</v>
+        <v>-0.03471585145495171</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-18.64162588660852</v>
+        <v>-18.77953442609101</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-19.95744315451025</v>
+        <v>-19.67219878993144</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-15.31862161978198</v>
+        <v>-15.80827844479868</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.53950127350966</v>
+        <v>-10.86797787337615</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2150097923222244</v>
+        <v>-0.2165224857894906</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2302194782428394</v>
+        <v>-0.2301943437220652</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1695669963192217</v>
+        <v>-0.176461911327855</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1221168265472893</v>
+        <v>-0.124383121744681</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-8.311602165176305</v>
+        <v>-8.205224753812093</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.92775114411228</v>
+        <v>-9.238697761707186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-6.084153661238115</v>
+        <v>-6.216980156030843</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.25053797258818</v>
+        <v>-1.477893157212299</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1014078058938928</v>
+        <v>-0.1011818575884737</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1110757383282936</v>
+        <v>-0.1141589577158657</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.06977755644813496</v>
+        <v>-0.07136110958274064</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.01578660204077566</v>
+        <v>-0.01826389403599296</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.24642052834501</v>
+        <v>-20.32248526442191</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-14.04086070711535</v>
+        <v>-15.04648210457211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.1375273706551</v>
+        <v>-10.68996141705705</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-11.08285688728084</v>
+        <v>-11.624820300565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2372111495723782</v>
+        <v>-0.2361754185697462</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.166722446077582</v>
+        <v>-0.1787403322195702</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1189293500903462</v>
+        <v>-0.1237637906431951</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.139715289078692</v>
+        <v>-0.1460925168621508</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.401849498454821</v>
+        <v>-7.371491944078478</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.7226332999743945</v>
+        <v>-1.875051915670612</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.678044268409214</v>
+        <v>1.431081937996604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.1032895198559676</v>
+        <v>-0.3088899375282864</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.09177213961079891</v>
+        <v>-0.09262767846701073</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.009525176275409239</v>
+        <v>-0.0236319125668034</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03113708023766474</v>
+        <v>0.01762179481866213</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.0009827477175303313</v>
+        <v>-0.00455391265866569</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-14.19847766169413</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-9.045158374116912</v>
+        <v>-9.045158374116891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1599160932007434</v>
@@ -949,7 +949,7 @@
         <v>-0.1734559560997814</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1128200057257158</v>
+        <v>-0.1128200057257156</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-19.58129910499284</v>
+        <v>-19.17819704243689</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-21.63066076264685</v>
+        <v>-21.62771885499093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-20.5113227373201</v>
+        <v>-20.71841426787498</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-15.20665882523289</v>
+        <v>-15.11456902439481</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2194294267304373</v>
+        <v>-0.2188055804930707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2592724987917026</v>
+        <v>-0.2580727879909609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2444897221482007</v>
+        <v>-0.2463715878797287</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1832734647885041</v>
+        <v>-0.1806713054464823</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-8.167686184810977</v>
+        <v>-8.301897128693422</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-9.088949016697851</v>
+        <v>-8.497234659831923</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-7.280524466765067</v>
+        <v>-8.370312356202426</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.55900129694277</v>
+        <v>-2.926517634312473</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.0966809096769051</v>
+        <v>-0.09977796698478235</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1161215328819566</v>
+        <v>-0.1082748540446321</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09248202749141188</v>
+        <v>-0.105138010360426</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03363825651439428</v>
+        <v>-0.03641810167149181</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-11.5071763326919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.786029896791614</v>
+        <v>-8.786029896791646</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1855953551153565</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1366193439287764</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1008511736989044</v>
+        <v>-0.1008511736989047</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-22.94581170610394</v>
+        <v>-23.74937437088348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.40154384370032</v>
+        <v>-21.28344670452446</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.6812199360424</v>
+        <v>-19.54722794677867</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-13.65621823355289</v>
+        <v>-14.00783817133192</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2914466304485048</v>
+        <v>-0.3017169028384964</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2509366365028549</v>
+        <v>-0.2529218459975096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2149724735554464</v>
+        <v>-0.2267932295826412</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1535080471172631</v>
+        <v>-0.1580330791770496</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.927170378798293</v>
+        <v>-4.444759302324086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.522287367869254</v>
+        <v>-3.76560280950913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-3.429763039988126</v>
+        <v>-3.54566715545527</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-3.219012902075812</v>
+        <v>-3.600960369401809</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05621886323161616</v>
+        <v>-0.06393098433267062</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.05744969264317321</v>
+        <v>-0.05195681193195033</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.04309758669516707</v>
+        <v>-0.04284387395522305</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03855521163084583</v>
+        <v>-0.04494754508477303</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-8.849992707103226</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-11.26318179427577</v>
+        <v>-11.26318179427578</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.2434193567996449</v>
@@ -1149,7 +1149,7 @@
         <v>-0.1102100615349066</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.1446940707823813</v>
+        <v>-0.1446940707823815</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-27.39514898324858</v>
+        <v>-28.28634738664876</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-14.87049769414492</v>
+        <v>-15.362701575456</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-15.99784380358445</v>
+        <v>-16.52247254043994</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-16.88704741454887</v>
+        <v>-17.24542894456579</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3102934373136736</v>
+        <v>-0.3265979624950461</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1768976559596589</v>
+        <v>-0.1811254476892789</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1937304463150476</v>
+        <v>-0.2000225863742269</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2106873189474205</v>
+        <v>-0.2160135364342652</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-13.61451755479601</v>
+        <v>-13.47832389008411</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-0.9008901584029366</v>
+        <v>-1.065270870417822</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-1.475700494451417</v>
+        <v>-1.811725051110445</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-5.312077644853201</v>
+        <v>-5.9715991349608</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1641753545702212</v>
+        <v>-0.1641823091527079</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.01228687746528967</v>
+        <v>-0.01404560767668708</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02113708303591719</v>
+        <v>-0.02413153496695486</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.07073029304849827</v>
+        <v>-0.07902051151503314</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.79366619045426</v>
+        <v>-18.40217177920697</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.99651581801676</v>
+        <v>-13.61175168658606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-15.13514832946087</v>
+        <v>-15.39002498284955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-14.69656046082985</v>
+        <v>-15.01093611135344</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2149915129639957</v>
+        <v>-0.210077850123037</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1628316599554507</v>
+        <v>-0.15792128925814</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1762649997682978</v>
+        <v>-0.1778343537655377</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1710416204671807</v>
+        <v>-0.1742866977711419</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.574874771694512</v>
+        <v>-9.602460184735166</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.172420656657541</v>
+        <v>-4.439661482457265</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.106708584139713</v>
+        <v>-6.003619982376977</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-6.570874629984718</v>
+        <v>-6.624603645448617</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1142485810150251</v>
+        <v>-0.1134288833019398</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.05102701412904027</v>
+        <v>-0.05457237197184326</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.07484576666101167</v>
+        <v>-0.07180941190344604</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.08041942417566293</v>
+        <v>-0.08090915079485987</v>
       </c>
     </row>
     <row r="25">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-13.68106032273419</v>
+        <v>-13.01936630575861</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-8.090850581694736</v>
+        <v>-7.8881705935016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-10.00000450833525</v>
+        <v>-9.927399030632293</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-13.52806705298773</v>
+        <v>-13.98660146751643</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1628605542256984</v>
+        <v>-0.1553043871374776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.09332839052529307</v>
+        <v>-0.09002313263218692</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1136433959605364</v>
+        <v>-0.1136677766890593</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1627842588517075</v>
+        <v>-0.1680190317671821</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-4.929317104188868</v>
+        <v>-4.616183535708184</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.2100222844831867</v>
+        <v>-0.08236246049735606</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.236254487526916</v>
+        <v>-2.181928373931476</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-6.165925634987889</v>
+        <v>-6.35220880953844</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.06097875703223406</v>
+        <v>-0.05636336158073944</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.002807867342962629</v>
+        <v>-0.0009857758473177151</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02599931369798327</v>
+        <v>-0.02602629086464061</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.07822659184155903</v>
+        <v>-0.07947853750265643</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-9.169875807405647</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-8.900211066652087</v>
+        <v>-8.900211066652064</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.1492271823438772</v>
@@ -1449,7 +1449,7 @@
         <v>-0.1091201756124593</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.1093937463461446</v>
+        <v>-0.1093937463461443</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-14.66384889459873</v>
+        <v>-14.44960736317985</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.92880293834195</v>
+        <v>-11.99914445378494</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.20587493934188</v>
+        <v>-11.05235831915747</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-10.58738828538478</v>
+        <v>-10.57631871169433</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.1725927613452854</v>
+        <v>-0.1709872665268461</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1425091586857355</v>
+        <v>-0.1432416018963788</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1317231198538319</v>
+        <v>-0.1312382229641627</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1293817965045846</v>
+        <v>-0.1284460941404389</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-10.51344914976781</v>
+        <v>-10.62654794118976</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-8.050062082913815</v>
+        <v>-8.061638918200755</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-7.260588648162096</v>
+        <v>-7.196961216500893</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-7.096458747758591</v>
+        <v>-7.057252101929507</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1257517399123695</v>
+        <v>-0.1280689188119879</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.09825602734287166</v>
+        <v>-0.09780096051043352</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.08701865437180631</v>
+        <v>-0.0862499617650368</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.08899232173366521</v>
+        <v>-0.08815892416070564</v>
       </c>
     </row>
     <row r="31">
